--- a/★★★行程★★★/2017/5月/澳新商旅/固定活动项目.xlsx
+++ b/★★★行程★★★/2017/5月/澳新商旅/固定活动项目.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="132" windowWidth="24120" windowHeight="13620"/>
@@ -222,19 +222,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6.11 Skyline 山顶自助晚餐（成人）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6.11 Skyline 山顶自助晚餐（儿童）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6.12 瓦特农场BBQ自助午餐+农场表演（成人）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.12 瓦特农场BBQ自助午餐+农场表演（儿童 5岁）</t>
+    <t>6.1 Skyline 山顶自助晚餐（成人）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.2 瓦特农场BBQ自助午餐+农场表演（成人）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.2 瓦特农场BBQ自助午餐+农场表演（儿童 5岁）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2056,7 +2056,7 @@
   <dimension ref="B1:H35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.6" x14ac:dyDescent="0.2"/>
@@ -2086,7 +2086,7 @@
       <c r="C3" s="47"/>
       <c r="D3" s="45">
         <f>InvoiceTotal</f>
-        <v>6105</v>
+        <v>2035</v>
       </c>
       <c r="E3" s="45"/>
       <c r="F3" s="1" t="s">
@@ -2176,37 +2176,37 @@
     </row>
     <row r="15" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="16">
         <v>405</v>
       </c>
       <c r="E15" s="16">
         <f>IFERROR(InvoiceDetails[[#This Row],[Unit]]*InvoiceDetails[[#This Row],[Qty]],"")</f>
-        <v>2430</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="16">
         <v>215</v>
       </c>
       <c r="E16" s="16">
         <f>IFERROR(InvoiceDetails[[#This Row],[Unit]]*InvoiceDetails[[#This Row],[Qty]],"")</f>
-        <v>645</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>54</v>
@@ -2216,12 +2216,12 @@
       </c>
       <c r="E17" s="16">
         <f>IFERROR(InvoiceDetails[[#This Row],[Unit]]*InvoiceDetails[[#This Row],[Qty]],"")</f>
-        <v>2400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>55</v>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="E18" s="16">
         <f>IFERROR(InvoiceDetails[[#This Row],[Unit]]*InvoiceDetails[[#This Row],[Qty]],"")</f>
-        <v>630</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="E22" s="25">
         <f>SUM(InvoiceDetails[Price])-E21</f>
-        <v>6105</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="E24" s="51">
         <f>E22+E23</f>
-        <v>6105</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
